--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="图标" sheetId="3" r:id="rId3"/>
+    <sheet name="平均" sheetId="4" r:id="rId4"/>
+    <sheet name="mos" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
   <si>
     <t>BC</t>
   </si>
@@ -135,14 +136,65 @@
   <si>
     <t>srgan9700</t>
   </si>
+  <si>
+    <t>ESRGAN-900-a</t>
+  </si>
+  <si>
+    <t>ESRGAN-1900-a</t>
+  </si>
+  <si>
+    <t>ESRGAN-2900-a</t>
+  </si>
+  <si>
+    <t>ESRGAN-3900-a</t>
+  </si>
+  <si>
+    <t>ESRGAN-900-b</t>
+  </si>
+  <si>
+    <t>ESRGAN-1900-b</t>
+  </si>
+  <si>
+    <t>ESRGAN-2900-b</t>
+  </si>
+  <si>
+    <t>ESRGAN-3900-b</t>
+  </si>
+  <si>
+    <t>ESRGAN-900-c</t>
+  </si>
+  <si>
+    <t>ESRGAN-1900-c</t>
+  </si>
+  <si>
+    <t>ESRGAN-2900-c</t>
+  </si>
+  <si>
+    <t>ESRGAN-3900-c</t>
+  </si>
+  <si>
+    <t>ESRGAN-900-d</t>
+  </si>
+  <si>
+    <t>ESRGAN-1900-d</t>
+  </si>
+  <si>
+    <t>ESRGAN-2900-d</t>
+  </si>
+  <si>
+    <t>ESRGAN-3900-d</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -156,7 +208,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,10 +235,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,21 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -220,6 +272,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,10 +315,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,14 +332,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,43 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,19 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,13 +450,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,18 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +569,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,15 +589,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +612,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -588,17 +651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -619,16 +671,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -640,13 +692,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -658,99 +707,105 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -887,7 +942,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
+              <c:f>图标!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -920,11 +975,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$1:$F$1</c15:sqref>
+                    <c15:sqref>图标!$B$1:$F$1</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$1:$E$1</c:f>
+              <c:f>图标!$B$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -948,11 +1003,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$2:$F$2</c15:sqref>
+                    <c15:sqref>图标!$B$2:$F$2</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$2:$E$2</c:f>
+              <c:f>图标!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1191,7 +1246,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$13</c:f>
+              <c:f>图标!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1224,11 +1279,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$12:$F$12</c15:sqref>
+                    <c15:sqref>图标!$B$12:$F$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$12:$E$12</c:f>
+              <c:f>图标!$B$12:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1252,11 +1307,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$13:$F$13</c15:sqref>
+                    <c15:sqref>图标!$B$13:$F$13</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$13:$E$13</c:f>
+              <c:f>图标!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1485,7 +1540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$15</c:f>
+              <c:f>图标!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1518,11 +1573,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$14:$F$14</c15:sqref>
+                    <c15:sqref>图标!$B$14:$F$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$14:$E$14</c:f>
+              <c:f>图标!$B$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1546,11 +1601,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$15:$F$15</c15:sqref>
+                    <c15:sqref>图标!$B$15:$F$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$15:$E$15</c:f>
+              <c:f>图标!$B$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1779,7 +1834,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$17</c:f>
+              <c:f>图标!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1812,11 +1867,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$16:$F$16</c15:sqref>
+                    <c15:sqref>图标!$B$16:$F$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$16:$E$16</c:f>
+              <c:f>图标!$B$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1840,11 +1895,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$17:$F$17</c15:sqref>
+                    <c15:sqref>图标!$B$17:$F$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$B$17:$E$17</c:f>
+              <c:f>图标!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4711,122 +4766,122 @@
   <sheetPr/>
   <dimension ref="A1:BQ103"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y103" sqref="Y103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="4" width="12.8888888888889"/>
-    <col min="5" max="5" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889" style="2" customWidth="1"/>
     <col min="6" max="66" width="12.8888888888889"/>
     <col min="67" max="67" width="11.7777777777778"/>
     <col min="68" max="69" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:69">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2" t="s">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2" t="s">
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2" t="s">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2" t="s">
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2" t="s">
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2" t="s">
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2" t="s">
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2" t="s">
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2" t="s">
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2" t="s">
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
     </row>
     <row r="2" spans="2:69">
       <c r="B2" t="s">
@@ -25639,259 +25694,259 @@
         <v>21</v>
       </c>
       <c r="B103">
-        <f>AVERAGE(B3:B102)</f>
+        <f t="shared" ref="B103:BM103" si="0">AVERAGE(B3:B102)</f>
         <v>8.61929744279031</v>
       </c>
       <c r="C103">
-        <f>AVERAGE(C3:C102)</f>
+        <f t="shared" si="0"/>
         <v>0.734391129858261</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D3:D102)</f>
+        <f t="shared" si="0"/>
         <v>26.9687779791126</v>
       </c>
       <c r="E103">
-        <f>AVERAGE(E3:E102)</f>
+        <f t="shared" si="0"/>
         <v>0.191694993355486</v>
       </c>
       <c r="F103">
-        <f>AVERAGE(F3:F102)</f>
+        <f t="shared" si="0"/>
         <v>6.63995962855317</v>
       </c>
       <c r="G103">
-        <f>AVERAGE(G3:G102)</f>
+        <f t="shared" si="0"/>
         <v>0.733876255116864</v>
       </c>
       <c r="H103">
-        <f>AVERAGE(H3:H102)</f>
+        <f t="shared" si="0"/>
         <v>25.4967179296537</v>
       </c>
-      <c r="I103" s="1">
-        <f>AVERAGE(I3:I102)</f>
+      <c r="I103" s="2">
+        <f t="shared" si="0"/>
         <v>0.112063473984599</v>
       </c>
       <c r="J103">
-        <f>AVERAGE(J3:J102)</f>
+        <f t="shared" si="0"/>
         <v>6.05224797317323</v>
       </c>
       <c r="K103">
-        <f>AVERAGE(K3:K102)</f>
+        <f t="shared" si="0"/>
         <v>0.738188638755783</v>
       </c>
       <c r="L103">
-        <f>AVERAGE(L3:L102)</f>
+        <f t="shared" si="0"/>
         <v>25.8414788986858</v>
       </c>
       <c r="M103">
-        <f>AVERAGE(M3:M102)</f>
+        <f t="shared" si="0"/>
         <v>0.105006111980183</v>
       </c>
       <c r="N103">
-        <f>AVERAGE(N3:N102)</f>
+        <f t="shared" si="0"/>
         <v>5.83812356729286</v>
       </c>
       <c r="O103">
-        <f>AVERAGE(O3:O102)</f>
+        <f t="shared" si="0"/>
         <v>0.737243189125592</v>
       </c>
       <c r="P103">
-        <f>AVERAGE(P3:P102)</f>
+        <f t="shared" si="0"/>
         <v>25.7676905996911</v>
       </c>
       <c r="Q103">
-        <f>AVERAGE(Q3:Q102)</f>
+        <f t="shared" si="0"/>
         <v>0.0992165340727661</v>
       </c>
       <c r="R103">
-        <f>AVERAGE(R3:R102)</f>
+        <f t="shared" si="0"/>
         <v>5.78453389284061</v>
       </c>
       <c r="S103">
-        <f>AVERAGE(S3:S102)</f>
+        <f t="shared" si="0"/>
         <v>0.738665018889558</v>
       </c>
       <c r="T103">
-        <f>AVERAGE(T3:T102)</f>
+        <f t="shared" si="0"/>
         <v>25.6040505581083</v>
       </c>
       <c r="U103">
-        <f>AVERAGE(U3:U102)</f>
+        <f t="shared" si="0"/>
         <v>0.0975944464583881</v>
       </c>
       <c r="V103">
-        <f>AVERAGE(V3:V102)</f>
+        <f t="shared" si="0"/>
         <v>5.75969731121478</v>
       </c>
       <c r="W103">
-        <f>AVERAGE(W3:W102)</f>
+        <f t="shared" si="0"/>
         <v>0.734755879292619</v>
       </c>
       <c r="X103">
-        <f>AVERAGE(X3:X102)</f>
+        <f t="shared" si="0"/>
         <v>25.7403584310892</v>
       </c>
       <c r="Y103">
-        <f>AVERAGE(Y3:Y102)</f>
+        <f t="shared" si="0"/>
         <v>0.0981632104079472</v>
       </c>
       <c r="Z103">
-        <f>AVERAGE(Z3:Z102)</f>
+        <f t="shared" si="0"/>
         <v>6.3005889649237</v>
       </c>
       <c r="AA103">
-        <f>AVERAGE(AA3:AA102)</f>
+        <f t="shared" si="0"/>
         <v>0.669078183953046</v>
       </c>
       <c r="AB103">
-        <f>AVERAGE(AB3:AB102)</f>
+        <f t="shared" si="0"/>
         <v>24.573655889686</v>
       </c>
       <c r="AC103">
-        <f>AVERAGE(AC3:AC102)</f>
+        <f t="shared" si="0"/>
         <v>0.110288674257463</v>
       </c>
       <c r="AD103">
-        <f>AVERAGE(AD3:AD102)</f>
+        <f t="shared" si="0"/>
         <v>6.29532902604778</v>
       </c>
       <c r="AE103">
-        <f>AVERAGE(AE3:AE102)</f>
+        <f t="shared" si="0"/>
         <v>0.680728353520215</v>
       </c>
       <c r="AF103">
-        <f>AVERAGE(AF3:AF102)</f>
+        <f t="shared" si="0"/>
         <v>24.8778133312228</v>
       </c>
       <c r="AG103">
-        <f>AVERAGE(AG3:AG102)</f>
+        <f t="shared" si="0"/>
         <v>0.100973922053818</v>
       </c>
       <c r="AH103">
-        <f>AVERAGE(AH3:AH102)</f>
+        <f t="shared" si="0"/>
         <v>6.21078183172925</v>
       </c>
       <c r="AI103">
-        <f>AVERAGE(AI3:AI102)</f>
+        <f t="shared" si="0"/>
         <v>0.681793125684143</v>
       </c>
       <c r="AJ103">
-        <f>AVERAGE(AJ3:AJ102)</f>
+        <f t="shared" si="0"/>
         <v>24.9490330107302</v>
       </c>
       <c r="AK103">
-        <f>AVERAGE(AK3:AK102)</f>
+        <f t="shared" si="0"/>
         <v>0.102079343731166</v>
       </c>
       <c r="AL103">
-        <f>AVERAGE(AL3:AL102)</f>
+        <f t="shared" si="0"/>
         <v>6.19983595399811</v>
       </c>
       <c r="AM103">
-        <f>AVERAGE(AM3:AM102)</f>
+        <f t="shared" si="0"/>
         <v>0.68042858369964</v>
       </c>
       <c r="AN103">
-        <f>AVERAGE(AN3:AN102)</f>
+        <f t="shared" si="0"/>
         <v>24.8953333652838</v>
       </c>
       <c r="AO103">
-        <f>AVERAGE(AO3:AO102)</f>
+        <f t="shared" si="0"/>
         <v>0.103773049681913</v>
       </c>
       <c r="AP103">
-        <f>AVERAGE(AP3:AP102)</f>
+        <f t="shared" si="0"/>
         <v>6.33409829309527</v>
       </c>
       <c r="AQ103">
-        <f>AVERAGE(AQ3:AQ102)</f>
+        <f t="shared" si="0"/>
         <v>0.665173692062072</v>
       </c>
       <c r="AR103">
-        <f>AVERAGE(AR3:AR102)</f>
+        <f t="shared" si="0"/>
         <v>24.6052346750544</v>
       </c>
       <c r="AS103">
-        <f>AVERAGE(AS3:AS102)</f>
+        <f t="shared" si="0"/>
         <v>0.111864719754085</v>
       </c>
       <c r="AT103">
-        <f>AVERAGE(AT3:AT102)</f>
+        <f t="shared" si="0"/>
         <v>6.33944578473793</v>
       </c>
       <c r="AU103">
-        <f>AVERAGE(AU3:AU102)</f>
+        <f t="shared" si="0"/>
         <v>0.659230144848881</v>
       </c>
       <c r="AV103">
-        <f>AVERAGE(AV3:AV102)</f>
+        <f t="shared" si="0"/>
         <v>24.0025003202805</v>
       </c>
       <c r="AW103">
-        <f>AVERAGE(AW3:AW102)</f>
+        <f t="shared" si="0"/>
         <v>0.107248260026099</v>
       </c>
       <c r="AX103">
-        <f>AVERAGE(AX3:AX102)</f>
+        <f t="shared" si="0"/>
         <v>6.32629133005457</v>
       </c>
       <c r="AY103">
-        <f>AVERAGE(AY3:AY102)</f>
+        <f t="shared" si="0"/>
         <v>0.671571706136478</v>
       </c>
       <c r="AZ103">
-        <f>AVERAGE(AZ3:AZ102)</f>
+        <f t="shared" si="0"/>
         <v>24.6485131227565</v>
       </c>
       <c r="BA103">
-        <f>AVERAGE(BA3:BA102)</f>
+        <f t="shared" si="0"/>
         <v>0.106467935588444</v>
       </c>
       <c r="BB103">
-        <f>AVERAGE(BB3:BB102)</f>
+        <f t="shared" si="0"/>
         <v>6.4781582908134</v>
       </c>
       <c r="BC103">
-        <f>AVERAGE(BC3:BC102)</f>
+        <f t="shared" si="0"/>
         <v>0.662744929795629</v>
       </c>
       <c r="BD103">
-        <f>AVERAGE(BD3:BD102)</f>
+        <f t="shared" si="0"/>
         <v>24.6929218999145</v>
       </c>
       <c r="BE103">
-        <f>AVERAGE(BE3:BE102)</f>
+        <f t="shared" si="0"/>
         <v>0.100209767244523</v>
       </c>
       <c r="BF103">
-        <f>AVERAGE(BF3:BF102)</f>
+        <f t="shared" si="0"/>
         <v>6.29407323830866</v>
       </c>
       <c r="BG103">
-        <f>AVERAGE(BG3:BG102)</f>
+        <f t="shared" si="0"/>
         <v>0.676551528552445</v>
       </c>
       <c r="BH103">
-        <f>AVERAGE(BH3:BH102)</f>
+        <f t="shared" si="0"/>
         <v>24.8988720227977</v>
       </c>
       <c r="BI103">
-        <f>AVERAGE(BI3:BI102)</f>
+        <f t="shared" si="0"/>
         <v>0.108232003653538</v>
       </c>
       <c r="BJ103">
-        <f>AVERAGE(BJ3:BJ102)</f>
+        <f t="shared" si="0"/>
         <v>6.51478552150674</v>
       </c>
       <c r="BK103">
-        <f>AVERAGE(BK3:BK102)</f>
+        <f t="shared" si="0"/>
         <v>0.668643935861108</v>
       </c>
       <c r="BL103">
-        <f>AVERAGE(BL3:BL102)</f>
+        <f t="shared" si="0"/>
         <v>24.7495645344314</v>
       </c>
       <c r="BM103">
-        <f>AVERAGE(BM3:BM102)</f>
+        <f t="shared" si="0"/>
         <v>0.0998800149944145</v>
       </c>
       <c r="BN103">
@@ -25942,7 +25997,7 @@
   <sheetPr/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R5" sqref="H1:R5"/>
     </sheetView>
   </sheetViews>
@@ -26186,7 +26241,7 @@
       <c r="B5">
         <v>0.191694993355486</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.112063473984599</v>
       </c>
       <c r="D5">
@@ -26405,7 +26460,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.112063473984599</v>
       </c>
       <c r="C5">
@@ -26516,7 +26571,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>0.112063473984599</v>
       </c>
       <c r="C17">
@@ -26545,7 +26600,7 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -26742,4 +26797,5242 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="13.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>4</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>3</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>5</v>
+      </c>
+      <c r="P31" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4</v>
+      </c>
+      <c r="P33" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="P34" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1">
+        <v>5</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>5</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1">
+        <v>4</v>
+      </c>
+      <c r="P38" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>3</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>2</v>
+      </c>
+      <c r="P39" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2</v>
+      </c>
+      <c r="O40" s="1">
+        <v>3</v>
+      </c>
+      <c r="P40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3</v>
+      </c>
+      <c r="N41" s="1">
+        <v>5</v>
+      </c>
+      <c r="O41" s="1">
+        <v>4</v>
+      </c>
+      <c r="P41" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>4</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1">
+        <v>4</v>
+      </c>
+      <c r="O43" s="1">
+        <v>4</v>
+      </c>
+      <c r="P43" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1">
+        <v>3</v>
+      </c>
+      <c r="N44" s="1">
+        <v>3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>4</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2</v>
+      </c>
+      <c r="O45" s="1">
+        <v>4</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2</v>
+      </c>
+      <c r="O46" s="1">
+        <v>5</v>
+      </c>
+      <c r="P46" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>4</v>
+      </c>
+      <c r="P47" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="1">
+        <v>5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>4</v>
+      </c>
+      <c r="P48" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>5</v>
+      </c>
+      <c r="K49" s="1">
+        <v>4</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>4</v>
+      </c>
+      <c r="P49" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>4</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>5</v>
+      </c>
+      <c r="P50" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>3</v>
+      </c>
+      <c r="O51" s="1">
+        <v>5</v>
+      </c>
+      <c r="P51" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>5</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1">
+        <v>3</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2</v>
+      </c>
+      <c r="P52" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2</v>
+      </c>
+      <c r="K53" s="1">
+        <v>4</v>
+      </c>
+      <c r="L53" s="1">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>4</v>
+      </c>
+      <c r="N53" s="1">
+        <v>2</v>
+      </c>
+      <c r="O53" s="1">
+        <v>2</v>
+      </c>
+      <c r="P53" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
+      <c r="K54" s="1">
+        <v>5</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2</v>
+      </c>
+      <c r="P54" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1">
+        <v>3</v>
+      </c>
+      <c r="M55" s="1">
+        <v>3</v>
+      </c>
+      <c r="N55" s="1">
+        <v>3</v>
+      </c>
+      <c r="O55" s="1">
+        <v>3</v>
+      </c>
+      <c r="P55" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1">
+        <v>4</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+      <c r="M56" s="1">
+        <v>5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>4</v>
+      </c>
+      <c r="O56" s="1">
+        <v>5</v>
+      </c>
+      <c r="P56" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>3</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3</v>
+      </c>
+      <c r="P57" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1">
+        <v>3</v>
+      </c>
+      <c r="L58" s="1">
+        <v>5</v>
+      </c>
+      <c r="M58" s="1">
+        <v>5</v>
+      </c>
+      <c r="N58" s="1">
+        <v>5</v>
+      </c>
+      <c r="O58" s="1">
+        <v>4</v>
+      </c>
+      <c r="P58" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="1">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4</v>
+      </c>
+      <c r="J59" s="1">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1">
+        <v>5</v>
+      </c>
+      <c r="M59" s="1">
+        <v>5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>3</v>
+      </c>
+      <c r="O59" s="1">
+        <v>5</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4</v>
+      </c>
+      <c r="I60" s="1">
+        <v>5</v>
+      </c>
+      <c r="J60" s="1">
+        <v>5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>5</v>
+      </c>
+      <c r="L60" s="1">
+        <v>5</v>
+      </c>
+      <c r="M60" s="1">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1">
+        <v>2</v>
+      </c>
+      <c r="O60" s="1">
+        <v>4</v>
+      </c>
+      <c r="P60" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1">
+        <v>5</v>
+      </c>
+      <c r="K61" s="1">
+        <v>3</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1">
+        <v>2</v>
+      </c>
+      <c r="N61" s="1">
+        <v>2</v>
+      </c>
+      <c r="O61" s="1">
+        <v>4</v>
+      </c>
+      <c r="P61" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1">
+        <v>4</v>
+      </c>
+      <c r="J62" s="1">
+        <v>5</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1">
+        <v>5</v>
+      </c>
+      <c r="M62" s="1">
+        <v>4</v>
+      </c>
+      <c r="N62" s="1">
+        <v>2</v>
+      </c>
+      <c r="O62" s="1">
+        <v>4</v>
+      </c>
+      <c r="P62" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1">
+        <v>3</v>
+      </c>
+      <c r="K63" s="1">
+        <v>3</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1">
+        <v>4</v>
+      </c>
+      <c r="N63" s="1">
+        <v>3</v>
+      </c>
+      <c r="O63" s="1">
+        <v>3</v>
+      </c>
+      <c r="P63" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2</v>
+      </c>
+      <c r="K64" s="1">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1">
+        <v>5</v>
+      </c>
+      <c r="M64" s="1">
+        <v>5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>4</v>
+      </c>
+      <c r="O64" s="1">
+        <v>4</v>
+      </c>
+      <c r="P64" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1">
+        <v>3</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1">
+        <v>4</v>
+      </c>
+      <c r="O65" s="1">
+        <v>4</v>
+      </c>
+      <c r="P65" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4</v>
+      </c>
+      <c r="H66" s="1">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1">
+        <v>4</v>
+      </c>
+      <c r="K66" s="1">
+        <v>3</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5</v>
+      </c>
+      <c r="O66" s="1">
+        <v>4</v>
+      </c>
+      <c r="P66" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>4</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2</v>
+      </c>
+      <c r="K67" s="1">
+        <v>3</v>
+      </c>
+      <c r="L67" s="1">
+        <v>3</v>
+      </c>
+      <c r="M67" s="1">
+        <v>3</v>
+      </c>
+      <c r="N67" s="1">
+        <v>5</v>
+      </c>
+      <c r="O67" s="1">
+        <v>3</v>
+      </c>
+      <c r="P67" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>4</v>
+      </c>
+      <c r="J68" s="1">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1">
+        <v>3</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1">
+        <v>3</v>
+      </c>
+      <c r="O68" s="1">
+        <v>5</v>
+      </c>
+      <c r="P68" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="1">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4</v>
+      </c>
+      <c r="L69" s="1">
+        <v>4</v>
+      </c>
+      <c r="M69" s="1">
+        <v>2</v>
+      </c>
+      <c r="N69" s="1">
+        <v>3</v>
+      </c>
+      <c r="O69" s="1">
+        <v>5</v>
+      </c>
+      <c r="P69" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>5</v>
+      </c>
+      <c r="L70" s="1">
+        <v>3</v>
+      </c>
+      <c r="M70" s="1">
+        <v>5</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2</v>
+      </c>
+      <c r="O70" s="1">
+        <v>5</v>
+      </c>
+      <c r="P70" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
+        <v>5</v>
+      </c>
+      <c r="K71" s="1">
+        <v>5</v>
+      </c>
+      <c r="L71" s="1">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1">
+        <v>5</v>
+      </c>
+      <c r="N71" s="1">
+        <v>4</v>
+      </c>
+      <c r="O71" s="1">
+        <v>4</v>
+      </c>
+      <c r="P71" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>3</v>
+      </c>
+      <c r="L72" s="1">
+        <v>2</v>
+      </c>
+      <c r="M72" s="1">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1">
+        <v>2</v>
+      </c>
+      <c r="O72" s="1">
+        <v>5</v>
+      </c>
+      <c r="P72" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>5</v>
+      </c>
+      <c r="J73" s="1">
+        <v>4</v>
+      </c>
+      <c r="K73" s="1">
+        <v>4</v>
+      </c>
+      <c r="L73" s="1">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1">
+        <v>3</v>
+      </c>
+      <c r="N73" s="1">
+        <v>2</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2</v>
+      </c>
+      <c r="P73" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1">
+        <v>4</v>
+      </c>
+      <c r="J74" s="1">
+        <v>4</v>
+      </c>
+      <c r="K74" s="1">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1">
+        <v>4</v>
+      </c>
+      <c r="M74" s="1">
+        <v>3</v>
+      </c>
+      <c r="N74" s="1">
+        <v>2</v>
+      </c>
+      <c r="O74" s="1">
+        <v>4</v>
+      </c>
+      <c r="P74" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4</v>
+      </c>
+      <c r="J75" s="1">
+        <v>4</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2</v>
+      </c>
+      <c r="N75" s="1">
+        <v>2</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2</v>
+      </c>
+      <c r="P75" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4</v>
+      </c>
+      <c r="J76" s="1">
+        <v>3</v>
+      </c>
+      <c r="K76" s="1">
+        <v>3</v>
+      </c>
+      <c r="L76" s="1">
+        <v>5</v>
+      </c>
+      <c r="M76" s="1">
+        <v>2</v>
+      </c>
+      <c r="N76" s="1">
+        <v>4</v>
+      </c>
+      <c r="O76" s="1">
+        <v>5</v>
+      </c>
+      <c r="P76" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="1">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>3</v>
+      </c>
+      <c r="J77" s="1">
+        <v>3</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4</v>
+      </c>
+      <c r="L77" s="1">
+        <v>4</v>
+      </c>
+      <c r="M77" s="1">
+        <v>2</v>
+      </c>
+      <c r="N77" s="1">
+        <v>5</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2</v>
+      </c>
+      <c r="P77" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>5</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2</v>
+      </c>
+      <c r="L78" s="1">
+        <v>4</v>
+      </c>
+      <c r="M78" s="1">
+        <v>2</v>
+      </c>
+      <c r="N78" s="1">
+        <v>4</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2</v>
+      </c>
+      <c r="P78" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>5</v>
+      </c>
+      <c r="I79" s="1">
+        <v>5</v>
+      </c>
+      <c r="J79" s="1">
+        <v>3</v>
+      </c>
+      <c r="K79" s="1">
+        <v>5</v>
+      </c>
+      <c r="L79" s="1">
+        <v>4</v>
+      </c>
+      <c r="M79" s="1">
+        <v>5</v>
+      </c>
+      <c r="N79" s="1">
+        <v>4</v>
+      </c>
+      <c r="O79" s="1">
+        <v>5</v>
+      </c>
+      <c r="P79" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80" s="1">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>5</v>
+      </c>
+      <c r="J80" s="1">
+        <v>5</v>
+      </c>
+      <c r="K80" s="1">
+        <v>5</v>
+      </c>
+      <c r="L80" s="1">
+        <v>3</v>
+      </c>
+      <c r="M80" s="1">
+        <v>2</v>
+      </c>
+      <c r="N80" s="1">
+        <v>5</v>
+      </c>
+      <c r="O80" s="1">
+        <v>3</v>
+      </c>
+      <c r="P80" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>3</v>
+      </c>
+      <c r="G81" s="1">
+        <v>5</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <v>4</v>
+      </c>
+      <c r="K81" s="1">
+        <v>4</v>
+      </c>
+      <c r="L81" s="1">
+        <v>3</v>
+      </c>
+      <c r="M81" s="1">
+        <v>4</v>
+      </c>
+      <c r="N81" s="1">
+        <v>3</v>
+      </c>
+      <c r="O81" s="1">
+        <v>4</v>
+      </c>
+      <c r="P81" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1">
+        <v>5</v>
+      </c>
+      <c r="J82" s="1">
+        <v>3</v>
+      </c>
+      <c r="K82" s="1">
+        <v>3</v>
+      </c>
+      <c r="L82" s="1">
+        <v>4</v>
+      </c>
+      <c r="M82" s="1">
+        <v>5</v>
+      </c>
+      <c r="N82" s="1">
+        <v>2</v>
+      </c>
+      <c r="O82" s="1">
+        <v>4</v>
+      </c>
+      <c r="P82" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="1">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4</v>
+      </c>
+      <c r="G83" s="1">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1">
+        <v>4</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2</v>
+      </c>
+      <c r="K83" s="1">
+        <v>3</v>
+      </c>
+      <c r="L83" s="1">
+        <v>2</v>
+      </c>
+      <c r="M83" s="1">
+        <v>3</v>
+      </c>
+      <c r="N83" s="1">
+        <v>2</v>
+      </c>
+      <c r="O83" s="1">
+        <v>3</v>
+      </c>
+      <c r="P83" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1">
+        <v>4</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1">
+        <v>3</v>
+      </c>
+      <c r="J84" s="1">
+        <v>5</v>
+      </c>
+      <c r="K84" s="1">
+        <v>5</v>
+      </c>
+      <c r="L84" s="1">
+        <v>2</v>
+      </c>
+      <c r="M84" s="1">
+        <v>2</v>
+      </c>
+      <c r="N84" s="1">
+        <v>2</v>
+      </c>
+      <c r="O84" s="1">
+        <v>4</v>
+      </c>
+      <c r="P84" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" s="1">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>4</v>
+      </c>
+      <c r="I85" s="1">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1">
+        <v>4</v>
+      </c>
+      <c r="K85" s="1">
+        <v>3</v>
+      </c>
+      <c r="L85" s="1">
+        <v>3</v>
+      </c>
+      <c r="M85" s="1">
+        <v>4</v>
+      </c>
+      <c r="N85" s="1">
+        <v>2</v>
+      </c>
+      <c r="O85" s="1">
+        <v>2</v>
+      </c>
+      <c r="P85" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1">
+        <v>5</v>
+      </c>
+      <c r="J86" s="1">
+        <v>4</v>
+      </c>
+      <c r="K86" s="1">
+        <v>3</v>
+      </c>
+      <c r="L86" s="1">
+        <v>5</v>
+      </c>
+      <c r="M86" s="1">
+        <v>5</v>
+      </c>
+      <c r="N86" s="1">
+        <v>4</v>
+      </c>
+      <c r="O86" s="1">
+        <v>2</v>
+      </c>
+      <c r="P86" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87" s="1">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1">
+        <v>3</v>
+      </c>
+      <c r="J87" s="1">
+        <v>5</v>
+      </c>
+      <c r="K87" s="1">
+        <v>2</v>
+      </c>
+      <c r="L87" s="1">
+        <v>3</v>
+      </c>
+      <c r="M87" s="1">
+        <v>2</v>
+      </c>
+      <c r="N87" s="1">
+        <v>4</v>
+      </c>
+      <c r="O87" s="1">
+        <v>3</v>
+      </c>
+      <c r="P87" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1">
+        <v>5</v>
+      </c>
+      <c r="J88" s="1">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1">
+        <v>3</v>
+      </c>
+      <c r="M88" s="1">
+        <v>4</v>
+      </c>
+      <c r="N88" s="1">
+        <v>4</v>
+      </c>
+      <c r="O88" s="1">
+        <v>5</v>
+      </c>
+      <c r="P88" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1">
+        <v>3</v>
+      </c>
+      <c r="H89" s="1">
+        <v>5</v>
+      </c>
+      <c r="I89" s="1">
+        <v>5</v>
+      </c>
+      <c r="J89" s="1">
+        <v>5</v>
+      </c>
+      <c r="K89" s="1">
+        <v>3</v>
+      </c>
+      <c r="L89" s="1">
+        <v>5</v>
+      </c>
+      <c r="M89" s="1">
+        <v>3</v>
+      </c>
+      <c r="N89" s="1">
+        <v>5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>2</v>
+      </c>
+      <c r="P89" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1">
+        <v>3</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2</v>
+      </c>
+      <c r="J90" s="1">
+        <v>2</v>
+      </c>
+      <c r="K90" s="1">
+        <v>3</v>
+      </c>
+      <c r="L90" s="1">
+        <v>3</v>
+      </c>
+      <c r="M90" s="1">
+        <v>5</v>
+      </c>
+      <c r="N90" s="1">
+        <v>3</v>
+      </c>
+      <c r="O90" s="1">
+        <v>4</v>
+      </c>
+      <c r="P90" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>5</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>5</v>
+      </c>
+      <c r="M91" s="1">
+        <v>4</v>
+      </c>
+      <c r="N91" s="1">
+        <v>4</v>
+      </c>
+      <c r="O91" s="1">
+        <v>4</v>
+      </c>
+      <c r="P91" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3</v>
+      </c>
+      <c r="I92" s="1">
+        <v>2</v>
+      </c>
+      <c r="J92" s="1">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>5</v>
+      </c>
+      <c r="L92" s="1">
+        <v>4</v>
+      </c>
+      <c r="M92" s="1">
+        <v>4</v>
+      </c>
+      <c r="N92" s="1">
+        <v>2</v>
+      </c>
+      <c r="O92" s="1">
+        <v>2</v>
+      </c>
+      <c r="P92" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93" s="1">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1">
+        <v>2</v>
+      </c>
+      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="K93" s="1">
+        <v>3</v>
+      </c>
+      <c r="L93" s="1">
+        <v>4</v>
+      </c>
+      <c r="M93" s="1">
+        <v>4</v>
+      </c>
+      <c r="N93" s="1">
+        <v>4</v>
+      </c>
+      <c r="O93" s="1">
+        <v>2</v>
+      </c>
+      <c r="P93" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3</v>
+      </c>
+      <c r="H94" s="1">
+        <v>5</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2</v>
+      </c>
+      <c r="J94" s="1">
+        <v>5</v>
+      </c>
+      <c r="K94" s="1">
+        <v>2</v>
+      </c>
+      <c r="L94" s="1">
+        <v>4</v>
+      </c>
+      <c r="M94" s="1">
+        <v>4</v>
+      </c>
+      <c r="N94" s="1">
+        <v>4</v>
+      </c>
+      <c r="O94" s="1">
+        <v>4</v>
+      </c>
+      <c r="P94" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95" s="1">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>5</v>
+      </c>
+      <c r="H95" s="1">
+        <v>3</v>
+      </c>
+      <c r="I95" s="1">
+        <v>5</v>
+      </c>
+      <c r="J95" s="1">
+        <v>4</v>
+      </c>
+      <c r="K95" s="1">
+        <v>4</v>
+      </c>
+      <c r="L95" s="1">
+        <v>4</v>
+      </c>
+      <c r="M95" s="1">
+        <v>3</v>
+      </c>
+      <c r="N95" s="1">
+        <v>3</v>
+      </c>
+      <c r="O95" s="1">
+        <v>2</v>
+      </c>
+      <c r="P95" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96" s="1">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4</v>
+      </c>
+      <c r="G96" s="1">
+        <v>5</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1">
+        <v>5</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>4</v>
+      </c>
+      <c r="L96" s="1">
+        <v>4</v>
+      </c>
+      <c r="M96" s="1">
+        <v>4</v>
+      </c>
+      <c r="N96" s="1">
+        <v>5</v>
+      </c>
+      <c r="O96" s="1">
+        <v>2</v>
+      </c>
+      <c r="P96" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3</v>
+      </c>
+      <c r="G97" s="1">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1">
+        <v>4</v>
+      </c>
+      <c r="J97" s="1">
+        <v>4</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1">
+        <v>2</v>
+      </c>
+      <c r="M97" s="1">
+        <v>4</v>
+      </c>
+      <c r="N97" s="1">
+        <v>5</v>
+      </c>
+      <c r="O97" s="1">
+        <v>2</v>
+      </c>
+      <c r="P97" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="1">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>5</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3</v>
+      </c>
+      <c r="I98" s="1">
+        <v>2</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3</v>
+      </c>
+      <c r="K98" s="1">
+        <v>3</v>
+      </c>
+      <c r="L98" s="1">
+        <v>3</v>
+      </c>
+      <c r="M98" s="1">
+        <v>4</v>
+      </c>
+      <c r="N98" s="1">
+        <v>2</v>
+      </c>
+      <c r="O98" s="1">
+        <v>2</v>
+      </c>
+      <c r="P98" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="1">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3</v>
+      </c>
+      <c r="G99" s="1">
+        <v>5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1">
+        <v>5</v>
+      </c>
+      <c r="J99" s="1">
+        <v>4</v>
+      </c>
+      <c r="K99" s="1">
+        <v>3</v>
+      </c>
+      <c r="L99" s="1">
+        <v>5</v>
+      </c>
+      <c r="M99" s="1">
+        <v>2</v>
+      </c>
+      <c r="N99" s="1">
+        <v>3</v>
+      </c>
+      <c r="O99" s="1">
+        <v>5</v>
+      </c>
+      <c r="P99" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>5</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>5</v>
+      </c>
+      <c r="I100" s="1">
+        <v>4</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1">
+        <v>3</v>
+      </c>
+      <c r="L100" s="1">
+        <v>5</v>
+      </c>
+      <c r="M100" s="1">
+        <v>2</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2</v>
+      </c>
+      <c r="O100" s="1">
+        <v>5</v>
+      </c>
+      <c r="P100" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17">
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2</v>
+      </c>
+      <c r="G101" s="1">
+        <v>5</v>
+      </c>
+      <c r="H101" s="1">
+        <v>5</v>
+      </c>
+      <c r="I101" s="1">
+        <v>4</v>
+      </c>
+      <c r="J101" s="1">
+        <v>3</v>
+      </c>
+      <c r="K101" s="1">
+        <v>4</v>
+      </c>
+      <c r="L101" s="1">
+        <v>3</v>
+      </c>
+      <c r="M101" s="1">
+        <v>5</v>
+      </c>
+      <c r="N101" s="1">
+        <v>4</v>
+      </c>
+      <c r="O101" s="1">
+        <v>2</v>
+      </c>
+      <c r="P101" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102">
+        <f>AVERAGE(B2:B101)</f>
+        <v>3.44</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C2:C101)</f>
+        <v>3.56</v>
+      </c>
+      <c r="D102">
+        <f>AVERAGE(D2:D101)</f>
+        <v>3.45</v>
+      </c>
+      <c r="E102">
+        <f>AVERAGE(E2:E101)</f>
+        <v>3.42</v>
+      </c>
+      <c r="F102">
+        <f>AVERAGE(F2:F101)</f>
+        <v>3.29</v>
+      </c>
+      <c r="G102">
+        <f>AVERAGE(G2:G101)</f>
+        <v>3.55</v>
+      </c>
+      <c r="H102">
+        <f>AVERAGE(H2:H101)</f>
+        <v>3.39</v>
+      </c>
+      <c r="I102">
+        <f>AVERAGE(I2:I101)</f>
+        <v>3.65</v>
+      </c>
+      <c r="J102">
+        <f>AVERAGE(J2:J101)</f>
+        <v>3.23</v>
+      </c>
+      <c r="K102">
+        <f>AVERAGE(K2:K101)</f>
+        <v>3.41</v>
+      </c>
+      <c r="L102">
+        <f>AVERAGE(L2:L101)</f>
+        <v>3.57</v>
+      </c>
+      <c r="M102">
+        <f>AVERAGE(M2:M101)</f>
+        <v>3.31</v>
+      </c>
+      <c r="N102">
+        <f>AVERAGE(N2:N101)</f>
+        <v>3.32</v>
+      </c>
+      <c r="O102">
+        <f>AVERAGE(O2:O101)</f>
+        <v>3.28</v>
+      </c>
+      <c r="P102">
+        <f>AVERAGE(P2:P101)</f>
+        <v>3.63</v>
+      </c>
+      <c r="Q102">
+        <f>AVERAGE(Q2:Q101)</f>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104">
+        <v>3.44</v>
+      </c>
+      <c r="C104">
+        <v>3.56</v>
+      </c>
+      <c r="D104">
+        <v>3.45</v>
+      </c>
+      <c r="E104">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105">
+        <v>3.29</v>
+      </c>
+      <c r="C105">
+        <v>3.55</v>
+      </c>
+      <c r="D105">
+        <v>3.39</v>
+      </c>
+      <c r="E105">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106">
+        <v>3.23</v>
+      </c>
+      <c r="C106">
+        <v>3.41</v>
+      </c>
+      <c r="D106">
+        <v>3.57</v>
+      </c>
+      <c r="E106">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107">
+        <v>3.32</v>
+      </c>
+      <c r="C107">
+        <v>3.28</v>
+      </c>
+      <c r="D107">
+        <v>3.63</v>
+      </c>
+      <c r="E107">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108">
+        <f>AVERAGE(B104:B107)</f>
+        <v>3.32</v>
+      </c>
+      <c r="C108">
+        <f>AVERAGE(C104:C107)</f>
+        <v>3.45</v>
+      </c>
+      <c r="D108">
+        <f>AVERAGE(D104:D107)</f>
+        <v>3.51</v>
+      </c>
+      <c r="E108">
+        <f>AVERAGE(E104:E107)</f>
+        <v>3.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>